--- a/data/cnmf_per_compartment.xlsx
+++ b/data/cnmf_per_compartment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bruno/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bruno/Dropbox/scripts/projects/meso_prj/scRNA_PM_atlas_repo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7649F79F-11D2-454E-A4AA-F66B95B5D2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A7C5D8-7F22-1243-B8EA-284851D28C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="16380" xr2:uid="{7EA27568-0387-8E47-B95C-177F6F69C010}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="4" xr2:uid="{7EA27568-0387-8E47-B95C-177F6F69C010}"/>
   </bookViews>
   <sheets>
     <sheet name="Cms_20" sheetId="1" r:id="rId1"/>
@@ -21785,11 +21785,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21808,9 +21809,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -21848,7 +21849,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -21954,7 +21955,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -22096,7 +22097,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -22106,8 +22107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFE4C1-FB97-7F43-AB06-221957E458A8}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23230,7 +23231,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>340</v>
+        <v>7228</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>341</v>
@@ -51398,7 +51399,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51832,7 +51833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1E35DD-BB50-4E47-95A7-6F45B1EBB89B}">
   <dimension ref="A1:F578"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -63407,8 +63408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3832FBD-5D17-5E4B-A3BF-0109AFB05F34}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63669,7 +63670,7 @@
       <c r="E13" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>2315</v>
       </c>
     </row>
